--- a/src/main/resources/formats/test.xlsx
+++ b/src/main/resources/formats/test.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="cell_name" vbProcedure="false">Sheet1!$A$2</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -29,7 +32,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="Arial Unicode MS"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -119,13 +122,12 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.6306818181818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -163,21 +165,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.6306818181818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"Page &amp;P</oddFooter>
@@ -192,21 +193,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.6306818181818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"Page &amp;P</oddFooter>

--- a/src/main/resources/formats/test.xlsx
+++ b/src/main/resources/formats/test.xlsx
@@ -24,10 +24,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">ああああ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文字列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真偽値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">計算式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結合セル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日付</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -97,8 +128,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -119,15 +166,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.6306818181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -147,7 +194,80 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <f aca="false">MOD(10, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="e">
+        <f aca="false">NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>43415</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A25:B26"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -171,7 +291,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.6306818181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -199,7 +319,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.6306818181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/formats/test.xlsx
+++ b/src/main/resources/formats/test.xlsx
@@ -169,12 +169,12 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,7 +291,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -319,7 +319,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
